--- a/static/contact/U10M.xlsx
+++ b/static/contact/U10M.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\bjfc\static\contact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE05883A-9275-44EA-B8C4-D2FBB0005FA6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76103E3F-A182-4543-9A16-252BCFEA9505}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="U10M" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="85">
   <si>
     <t>Active Players</t>
   </si>
@@ -166,27 +166,6 @@
     <t>Recent Players</t>
   </si>
   <si>
-    <t>Bullman, Kane</t>
-  </si>
-  <si>
-    <t>Bullman, Andrew</t>
-  </si>
-  <si>
-    <t>0425 765 610</t>
-  </si>
-  <si>
-    <t>andrewbullman1@gmail.com</t>
-  </si>
-  <si>
-    <t>Bullman, Simone</t>
-  </si>
-  <si>
-    <t>0418 140 240</t>
-  </si>
-  <si>
-    <t>Bullman, Tyler</t>
-  </si>
-  <si>
     <t>Hurrell, Jai</t>
   </si>
   <si>
@@ -217,9 +196,6 @@
     <t>0407 502 618</t>
   </si>
   <si>
-    <t>Nackovski, David</t>
-  </si>
-  <si>
     <t>Nicolaou, Noah</t>
   </si>
   <si>
@@ -235,12 +211,6 @@
     <t>Historical Players</t>
   </si>
   <si>
-    <t>Cullen, Mason</t>
-  </si>
-  <si>
-    <t>0401 751 118</t>
-  </si>
-  <si>
     <t>Perry, Ryan</t>
   </si>
   <si>
@@ -284,12 +254,33 @@
   </si>
   <si>
     <t>grjwootten@yahoo.com.au</t>
+  </si>
+  <si>
+    <t>Page, Shayla</t>
+  </si>
+  <si>
+    <t>Page, Colin</t>
+  </si>
+  <si>
+    <t>0408 080 446</t>
+  </si>
+  <si>
+    <t>colinp71@hotmail.com</t>
+  </si>
+  <si>
+    <t>Torney, Belinda</t>
+  </si>
+  <si>
+    <t>0409 149 366</t>
+  </si>
+  <si>
+    <t>belinda.torney59@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -782,6 +773,7 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -789,7 +781,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1144,12 +1135,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.42578125" customWidth="1"/>
@@ -1159,45 +1150,45 @@
     <col min="7" max="7" width="30.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="3" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-    </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1220,7 +1211,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1243,7 +1234,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -1266,7 +1257,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -1289,7 +1280,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -1312,412 +1303,343 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>36</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>37</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>38</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D9" t="s">
         <v>39</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E9" t="s">
         <v>37</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F9" t="s">
         <v>40</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G9" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>41</v>
       </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>42</v>
       </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" t="s">
+        <v>73</v>
+      </c>
+      <c r="G14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>43</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B15" t="s">
         <v>44</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C15" t="s">
         <v>45</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D15" t="s">
         <v>46</v>
       </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="E15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+    <row r="17" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="3" t="s">
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B18" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C18" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D18" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E18" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F18" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G18" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" t="s">
-        <v>51</v>
-      </c>
-      <c r="E15" t="s">
-        <v>52</v>
-      </c>
-      <c r="F15" t="s">
-        <v>53</v>
-      </c>
-      <c r="G15" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>54</v>
-      </c>
-      <c r="B16" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" t="s">
-        <v>51</v>
-      </c>
-      <c r="E16" t="s">
-        <v>52</v>
-      </c>
-      <c r="F16" t="s">
-        <v>53</v>
-      </c>
-      <c r="G16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>55</v>
-      </c>
-      <c r="B17" t="s">
-        <v>56</v>
-      </c>
-      <c r="C17" t="s">
-        <v>57</v>
-      </c>
-      <c r="D17" t="s">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>58</v>
       </c>
-      <c r="E17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="B19" t="s">
         <v>59</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C19" t="s">
         <v>60</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D19" t="s">
         <v>61</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E18" t="s">
+      <c r="B21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>63</v>
       </c>
-      <c r="F18" t="s">
+      <c r="B23" t="s">
         <v>64</v>
       </c>
-      <c r="G18" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="C23" t="s">
         <v>65</v>
       </c>
-      <c r="B19" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="D23" t="s">
         <v>66</v>
       </c>
-      <c r="B20" t="s">
+      <c r="E23" t="s">
         <v>67</v>
       </c>
-      <c r="C20" t="s">
+      <c r="F23" t="s">
         <v>68</v>
       </c>
-      <c r="D20" t="s">
-        <v>69</v>
-      </c>
-      <c r="E20" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-    </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B24" t="s">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="C24" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D24" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="G24" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>73</v>
-      </c>
-      <c r="B25" t="s">
-        <v>74</v>
-      </c>
-      <c r="C25" t="s">
-        <v>75</v>
-      </c>
-      <c r="D25" t="s">
-        <v>76</v>
-      </c>
-      <c r="E25" t="s">
         <v>77</v>
-      </c>
-      <c r="F25" t="s">
-        <v>78</v>
-      </c>
-      <c r="G25" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>79</v>
-      </c>
-      <c r="B26" t="s">
-        <v>80</v>
-      </c>
-      <c r="C26" t="s">
-        <v>81</v>
-      </c>
-      <c r="D26" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" t="s">
-        <v>82</v>
-      </c>
-      <c r="F26" t="s">
-        <v>83</v>
-      </c>
-      <c r="G26" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>84</v>
-      </c>
-      <c r="B27" t="s">
-        <v>85</v>
-      </c>
-      <c r="C27" t="s">
-        <v>86</v>
-      </c>
-      <c r="D27" t="s">
-        <v>87</v>
-      </c>
-      <c r="E27" t="s">
-        <v>44</v>
-      </c>
-      <c r="F27" t="s">
-        <v>45</v>
-      </c>
-      <c r="G27" t="s">
-        <v>87</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:G21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/static/contact/U10M.xlsx
+++ b/static/contact/U10M.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\bjfc\static\contact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76103E3F-A182-4543-9A16-252BCFEA9505}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C74CC2C-BA22-4F77-A884-A73755DF4FE6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="77">
   <si>
     <t>Active Players</t>
   </si>
@@ -242,30 +242,6 @@
   </si>
   <si>
     <t>0447 862 273</t>
-  </si>
-  <si>
-    <t>Wootten, Seth</t>
-  </si>
-  <si>
-    <t>Wootten, Gavin</t>
-  </si>
-  <si>
-    <t>0432 561 555</t>
-  </si>
-  <si>
-    <t>grjwootten@yahoo.com.au</t>
-  </si>
-  <si>
-    <t>Page, Shayla</t>
-  </si>
-  <si>
-    <t>Page, Colin</t>
-  </si>
-  <si>
-    <t>0408 080 446</t>
-  </si>
-  <si>
-    <t>colinp71@hotmail.com</t>
   </si>
   <si>
     <t>Torney, Belinda</t>
@@ -1136,7 +1112,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1397,16 +1373,16 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C12" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D12" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E12" t="s">
         <v>11</v>
@@ -1415,231 +1391,185 @@
         <v>11</v>
       </c>
       <c r="G12" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="B13" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="C13" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="D13" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="G13" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="B14" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="C14" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="D14" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="E14" t="s">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="G14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" t="s">
         <v>46</v>
       </c>
-      <c r="E15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+    </row>
+    <row r="16" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B16" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="4" t="s">
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="A18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B21" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E21" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F21" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G21" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" t="s">
-        <v>59</v>
-      </c>
-      <c r="C19" t="s">
-        <v>60</v>
-      </c>
-      <c r="D19" t="s">
-        <v>61</v>
-      </c>
-      <c r="E19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-    </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A22" t="s">
         <v>63</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B22" t="s">
         <v>64</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C22" t="s">
         <v>65</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D22" t="s">
         <v>66</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E22" t="s">
         <v>67</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F22" t="s">
         <v>68</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G22" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>74</v>
-      </c>
-      <c r="B24" t="s">
-        <v>75</v>
-      </c>
-      <c r="C24" t="s">
-        <v>76</v>
-      </c>
-      <c r="D24" t="s">
-        <v>77</v>
-      </c>
-      <c r="E24" t="s">
-        <v>44</v>
-      </c>
-      <c r="F24" t="s">
-        <v>45</v>
-      </c>
-      <c r="G24" t="s">
-        <v>77</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:G20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/static/contact/U10M.xlsx
+++ b/static/contact/U10M.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\bjfc\static\contact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C74CC2C-BA22-4F77-A884-A73755DF4FE6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4640C11-D803-4DE6-B667-4E4A8350F389}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="77">
-  <si>
-    <t>Active Players</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="65">
   <si>
     <t>Guardian 1</t>
   </si>
@@ -208,42 +205,6 @@
     <t>a.nicolaou84@gmail.com</t>
   </si>
   <si>
-    <t>Historical Players</t>
-  </si>
-  <si>
-    <t>Perry, Ryan</t>
-  </si>
-  <si>
-    <t>Perry, Craig</t>
-  </si>
-  <si>
-    <t>0432 071 842</t>
-  </si>
-  <si>
-    <t>craig.danielle@optusnet.com.au</t>
-  </si>
-  <si>
-    <t>Perry, Danielle</t>
-  </si>
-  <si>
-    <t>0417 166 385</t>
-  </si>
-  <si>
-    <t>White, Landon</t>
-  </si>
-  <si>
-    <t>White, Shannon</t>
-  </si>
-  <si>
-    <t>0447 969 659</t>
-  </si>
-  <si>
-    <t>White, Guy</t>
-  </si>
-  <si>
-    <t>0447 862 273</t>
-  </si>
-  <si>
     <t>Torney, Belinda</t>
   </si>
   <si>
@@ -251,6 +212,9 @@
   </si>
   <si>
     <t>belinda.torney59@gmail.com</t>
+  </si>
+  <si>
+    <t>Registered Players</t>
   </si>
 </sst>
 </file>
@@ -1112,9 +1076,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1128,448 +1094,382 @@
   <sheetData>
     <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>15</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>16</v>
       </c>
-      <c r="F4" t="s">
-        <v>17</v>
-      </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
         <v>18</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>19</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>21</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>22</v>
       </c>
-      <c r="F5" t="s">
-        <v>23</v>
-      </c>
       <c r="G5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
         <v>24</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>25</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>26</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>27</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>28</v>
       </c>
-      <c r="F6" t="s">
-        <v>29</v>
-      </c>
       <c r="G6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
         <v>30</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>31</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>32</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>33</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>34</v>
       </c>
-      <c r="F7" t="s">
-        <v>35</v>
-      </c>
       <c r="G7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" t="s">
         <v>48</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>49</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>50</v>
       </c>
-      <c r="D8" t="s">
-        <v>51</v>
-      </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" t="s">
         <v>36</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>37</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>38</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" t="s">
         <v>39</v>
       </c>
-      <c r="E9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" t="s">
-        <v>40</v>
-      </c>
       <c r="G9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" t="s">
         <v>52</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>53</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>54</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>55</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>56</v>
       </c>
-      <c r="F11" t="s">
-        <v>57</v>
-      </c>
       <c r="G11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B12" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="C12" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="D12" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="E12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G12" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="B13" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="D13" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="E13" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="G13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" t="s">
         <v>45</v>
       </c>
-      <c r="D14" t="s">
+    </row>
+    <row r="15" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16" s="3" t="s">
+      <c r="B15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="4" t="s">
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
+      <c r="B16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" t="s">
         <v>58</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C17" t="s">
         <v>59</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D17" t="s">
         <v>60</v>
       </c>
-      <c r="D18" t="s">
-        <v>61</v>
-      </c>
-      <c r="E18" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s">
-        <v>61</v>
+      <c r="E17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="A20" s="1"/>
+      <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
-      <c r="E20" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>63</v>
-      </c>
-      <c r="B22" t="s">
-        <v>64</v>
-      </c>
-      <c r="C22" t="s">
-        <v>65</v>
-      </c>
-      <c r="D22" t="s">
-        <v>66</v>
-      </c>
-      <c r="E22" t="s">
-        <v>67</v>
-      </c>
-      <c r="F22" t="s">
-        <v>68</v>
-      </c>
-      <c r="G22" t="s">
-        <v>66</v>
-      </c>
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:G16"/>
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="E20:G20"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:G15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/static/contact/U10M.xlsx
+++ b/static/contact/U10M.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\bjfc\static\contact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4640C11-D803-4DE6-B667-4E4A8350F389}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C205046-C9F8-40A8-8B17-12564A91A0BA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="U10M" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="71">
   <si>
     <t>Guardian 1</t>
   </si>
@@ -215,6 +215,24 @@
   </si>
   <si>
     <t>Registered Players</t>
+  </si>
+  <si>
+    <t>Wyngaard, Kirby</t>
+  </si>
+  <si>
+    <t>Wyngaard, Tobie</t>
+  </si>
+  <si>
+    <t>0421 302 423</t>
+  </si>
+  <si>
+    <t>tobiet78@hotmail.com</t>
+  </si>
+  <si>
+    <t>Williams, Rebecca</t>
+  </si>
+  <si>
+    <t>0401 368 816</t>
   </si>
 </sst>
 </file>
@@ -1082,17 +1100,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" customWidth="1"/>
-    <col min="4" max="5" width="30.42578125" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" customWidth="1"/>
-    <col min="7" max="7" width="30.42578125" customWidth="1"/>
+    <col min="1" max="1" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" customWidth="1"/>
+    <col min="4" max="5" width="29.6640625" customWidth="1"/>
+    <col min="6" max="6" width="14.77734375" customWidth="1"/>
+    <col min="7" max="7" width="29.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>64</v>
       </c>
@@ -1107,7 +1125,7 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1130,7 +1148,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1153,7 +1171,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1176,7 +1194,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1199,7 +1217,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -1222,7 +1240,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -1245,7 +1263,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -1268,7 +1286,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -1291,7 +1309,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -1314,7 +1332,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>51</v>
       </c>
@@ -1337,7 +1355,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>41</v>
       </c>
@@ -1360,7 +1378,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>42</v>
       </c>
@@ -1383,93 +1401,99 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+    <row r="14" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" t="s">
+        <v>70</v>
+      </c>
+      <c r="G14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B16" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="4" t="s">
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G17" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="18" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>57</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>58</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" t="s">
         <v>59</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D18" t="s">
         <v>60</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E18" t="s">
         <v>10</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F18" t="s">
         <v>10</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G18" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-    </row>
+    <row r="20" spans="1:7" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:7" ht="14.4" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="4">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:G16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/static/contact/U10M.xlsx
+++ b/static/contact/U10M.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\bjfc\static\contact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C205046-C9F8-40A8-8B17-12564A91A0BA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07CD4D8F-5513-4546-9F17-B528B8A44246}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="U10M" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="72">
   <si>
     <t>Guardian 1</t>
   </si>
@@ -160,9 +160,6 @@
     <t>sarah.wootten@outlook.com</t>
   </si>
   <si>
-    <t>Recent Players</t>
-  </si>
-  <si>
     <t>Hurrell, Jai</t>
   </si>
   <si>
@@ -193,18 +190,6 @@
     <t>0407 502 618</t>
   </si>
   <si>
-    <t>Nicolaou, Noah</t>
-  </si>
-  <si>
-    <t>Nicolaou, Amanda</t>
-  </si>
-  <si>
-    <t>0422 599 195</t>
-  </si>
-  <si>
-    <t>a.nicolaou84@gmail.com</t>
-  </si>
-  <si>
     <t>Torney, Belinda</t>
   </si>
   <si>
@@ -233,6 +218,24 @@
   </si>
   <si>
     <t>0401 368 816</t>
+  </si>
+  <si>
+    <t>chrisbartling@hotmail.com</t>
+  </si>
+  <si>
+    <t>benbev35@gmail.com</t>
+  </si>
+  <si>
+    <t>daveirvin_3@hotmail.com</t>
+  </si>
+  <si>
+    <t>0438 326 380</t>
+  </si>
+  <si>
+    <t>a.hough@live.com.au</t>
+  </si>
+  <si>
+    <t>bec78312@hotmail.com</t>
   </si>
 </sst>
 </file>
@@ -1094,25 +1097,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.77734375" customWidth="1"/>
-    <col min="4" max="5" width="29.6640625" customWidth="1"/>
-    <col min="6" max="6" width="14.77734375" customWidth="1"/>
-    <col min="7" max="7" width="29.6640625" customWidth="1"/>
+    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="5" width="29.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="29.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1125,7 +1126,7 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1148,7 +1149,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1168,10 +1169,10 @@
         <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1194,7 +1195,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1214,10 +1215,10 @@
         <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -1237,10 +1238,10 @@
         <v>28</v>
       </c>
       <c r="G6" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -1263,19 +1264,19 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" t="s">
         <v>47</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>48</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>49</v>
       </c>
-      <c r="D8" t="s">
-        <v>50</v>
-      </c>
       <c r="E8" t="s">
         <v>10</v>
       </c>
@@ -1283,10 +1284,10 @@
         <v>10</v>
       </c>
       <c r="G8" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -1306,10 +1307,10 @@
         <v>39</v>
       </c>
       <c r="G9" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -1317,10 +1318,10 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
@@ -1332,41 +1333,41 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" t="s">
         <v>51</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>52</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>53</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>54</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>55</v>
       </c>
-      <c r="F11" t="s">
-        <v>56</v>
-      </c>
       <c r="G11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>41</v>
       </c>
       <c r="B12" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C12" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D12" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E12" t="s">
         <v>10</v>
@@ -1375,10 +1376,10 @@
         <v>10</v>
       </c>
       <c r="G12" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>42</v>
       </c>
@@ -1398,102 +1399,36 @@
         <v>10</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" t="s">
         <v>65</v>
       </c>
-      <c r="B14" t="s">
-        <v>66</v>
-      </c>
-      <c r="C14" t="s">
-        <v>67</v>
-      </c>
-      <c r="D14" t="s">
-        <v>68</v>
-      </c>
-      <c r="E14" t="s">
-        <v>69</v>
-      </c>
-      <c r="F14" t="s">
-        <v>70</v>
-      </c>
       <c r="G14" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-    </row>
-    <row r="17" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D18" t="s">
-        <v>60</v>
-      </c>
-      <c r="E18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" t="s">
-        <v>10</v>
-      </c>
-      <c r="G18" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="1:7" ht="14.4" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="2">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:G16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/static/contact/U10M.xlsx
+++ b/static/contact/U10M.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\bjfc\static\contact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07CD4D8F-5513-4546-9F17-B528B8A44246}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B7ED01B-2E1C-4806-A36E-5D0FC270F1AB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="U10M" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="78">
   <si>
     <t>Guardian 1</t>
   </si>
@@ -236,6 +236,24 @@
   </si>
   <si>
     <t>bec78312@hotmail.com</t>
+  </si>
+  <si>
+    <t>Moloney, Tom</t>
+  </si>
+  <si>
+    <t>0487 271 478</t>
+  </si>
+  <si>
+    <t>peterr1413@gmail.com</t>
+  </si>
+  <si>
+    <t>Rowe, Maddison</t>
+  </si>
+  <si>
+    <t>0422 536 882</t>
+  </si>
+  <si>
+    <t>cazdavis700@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1097,9 +1115,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:G16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1335,62 +1355,62 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="D11" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="E11" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="G11" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C12" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D12" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="F12" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="G12" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="D13" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="E13" t="s">
         <v>10</v>
@@ -1404,24 +1424,70 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>60</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B16" t="s">
         <v>61</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C16" t="s">
         <v>62</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D16" t="s">
         <v>63</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E16" t="s">
         <v>64</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F16" t="s">
         <v>65</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G16" t="s">
         <v>71</v>
       </c>
     </row>

--- a/static/contact/U10M.xlsx
+++ b/static/contact/U10M.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\bjfc\static\contact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B7ED01B-2E1C-4806-A36E-5D0FC270F1AB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B999B89-B205-4D77-956D-0F1673A4D865}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="81">
   <si>
     <t>Guardian 1</t>
   </si>
@@ -254,6 +254,15 @@
   </si>
   <si>
     <t>cazdavis700@gmail.com</t>
+  </si>
+  <si>
+    <t>Mann, Jye</t>
+  </si>
+  <si>
+    <t>0418 375 194</t>
+  </si>
+  <si>
+    <t>mannelec@hotmail.com</t>
   </si>
 </sst>
 </file>
@@ -1115,10 +1124,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G16"/>
+      <selection sqref="A1:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1355,16 +1364,16 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="D11" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
@@ -1378,62 +1387,62 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="D12" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="E12" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="G12" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="C13" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="D13" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="F13" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="G13" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="B14" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="D14" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="E14" t="s">
         <v>10</v>
@@ -1447,16 +1456,16 @@
     </row>
     <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="D15" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="E15" t="s">
         <v>10</v>
@@ -1470,24 +1479,47 @@
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>60</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>61</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
         <v>62</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D17" t="s">
         <v>63</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E17" t="s">
         <v>64</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F17" t="s">
         <v>65</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G17" t="s">
         <v>71</v>
       </c>
     </row>

--- a/static/contact/U10M.xlsx
+++ b/static/contact/U10M.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\bjfc\static\contact\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\tykto\bjfc\static\contact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B999B89-B205-4D77-956D-0F1673A4D865}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C35069F-A1BB-41B3-9EF7-853BFEED0A23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="85">
   <si>
     <t>Guardian 1</t>
   </si>
@@ -263,6 +263,18 @@
   </si>
   <si>
     <t>mannelec@hotmail.com</t>
+  </si>
+  <si>
+    <t>Killingback, Charlie</t>
+  </si>
+  <si>
+    <t>Annunziata, Sarah</t>
+  </si>
+  <si>
+    <t>0424 054 222</t>
+  </si>
+  <si>
+    <t>sarah_annunziata@hotmail.com.au</t>
   </si>
 </sst>
 </file>
@@ -1124,11 +1136,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G17"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1341,16 +1351,16 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="C10" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="D10" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
@@ -1364,16 +1374,16 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="D11" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
@@ -1387,16 +1397,16 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="D12" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E12" t="s">
         <v>10</v>
@@ -1410,62 +1420,62 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="D13" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="E13" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="G13" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="C14" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="D14" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="F14" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="G14" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="B15" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="D15" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="E15" t="s">
         <v>10</v>
@@ -1479,16 +1489,16 @@
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="C16" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="D16" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="E16" t="s">
         <v>10</v>
@@ -1502,24 +1512,47 @@
     </row>
     <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>60</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>61</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" t="s">
         <v>62</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D18" t="s">
         <v>63</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E18" t="s">
         <v>64</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F18" t="s">
         <v>65</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G18" t="s">
         <v>71</v>
       </c>
     </row>

--- a/static/contact/U10M.xlsx
+++ b/static/contact/U10M.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\tykto\bjfc\static\contact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C35069F-A1BB-41B3-9EF7-853BFEED0A23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD1657FD-38C4-4BB3-A987-7CE86A6365DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="82">
   <si>
     <t>Guardian 1</t>
   </si>
@@ -245,15 +245,6 @@
   </si>
   <si>
     <t>peterr1413@gmail.com</t>
-  </si>
-  <si>
-    <t>Rowe, Maddison</t>
-  </si>
-  <si>
-    <t>0422 536 882</t>
-  </si>
-  <si>
-    <t>cazdavis700@gmail.com</t>
   </si>
   <si>
     <t>Mann, Jye</t>
@@ -1136,7 +1127,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1351,16 +1342,16 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" t="s">
         <v>81</v>
-      </c>
-      <c r="B10" t="s">
-        <v>82</v>
-      </c>
-      <c r="C10" t="s">
-        <v>83</v>
-      </c>
-      <c r="D10" t="s">
-        <v>84</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
@@ -1397,16 +1388,16 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D12" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E12" t="s">
         <v>10</v>
@@ -1466,16 +1457,16 @@
     </row>
     <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="C15" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="D15" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="E15" t="s">
         <v>10</v>
@@ -1489,16 +1480,16 @@
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C16" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="D16" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="E16" t="s">
         <v>10</v>
@@ -1512,47 +1503,24 @@
     </row>
     <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="C17" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="D17" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="F17" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="G17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>60</v>
-      </c>
-      <c r="B18" t="s">
-        <v>61</v>
-      </c>
-      <c r="C18" t="s">
-        <v>62</v>
-      </c>
-      <c r="D18" t="s">
-        <v>63</v>
-      </c>
-      <c r="E18" t="s">
-        <v>64</v>
-      </c>
-      <c r="F18" t="s">
-        <v>65</v>
-      </c>
-      <c r="G18" t="s">
         <v>71</v>
       </c>
     </row>
